--- a/OpenCart-TestCases.xlsx
+++ b/OpenCart-TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinh Le\Documents\Automation\allProjects\OpencartV121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C359C0-B09A-4A74-9C84-EDDEF03C6443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78B6E1A-205D-4454-B773-FC35396036BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="2184" windowWidth="22848" windowHeight="11568" tabRatio="914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54852" yWindow="1572" windowWidth="22848" windowHeight="11568" tabRatio="914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vesion History" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="1153">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2425,14 +2425,6 @@
   </si>
   <si>
     <t>Validate the Password Reset functionality in all the supported environments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try all below invalid email address formats:
-1) pavanol
-2) pavanol@
-3) pavanol@gmail
-4) pavanol@gmail.
-</t>
   </si>
   <si>
     <t>Validate searching with an existing Product Name</t>
@@ -4630,6 +4622,14 @@
     <t xml:space="preserve">Email Address - kieutesting@gmail.com
 Password -
 test123
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try all below invalid email address formats:
+1) kieutesting
+2) kieutesting@
+3) kieutesting@gmail
+4) kieutesting@gmail.
 </t>
   </si>
 </sst>
@@ -4914,7 +4914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5024,6 +5024,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5045,24 +5064,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5746,13 +5749,13 @@
         <v>6</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J8" s="24"/>
     </row>
     <row r="9" spans="7:10" ht="18" x14ac:dyDescent="0.35">
       <c r="G9" s="20"/>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="54" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="27" t="s">
@@ -5762,7 +5765,7 @@
     </row>
     <row r="10" spans="7:10" ht="18" x14ac:dyDescent="0.35">
       <c r="G10" s="20"/>
-      <c r="H10" s="48"/>
+      <c r="H10" s="55"/>
       <c r="I10" s="27" t="s">
         <v>16</v>
       </c>
@@ -5772,7 +5775,7 @@
     </row>
     <row r="11" spans="7:10" ht="18" x14ac:dyDescent="0.35">
       <c r="G11" s="20"/>
-      <c r="H11" s="48"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="27" t="s">
         <v>18</v>
       </c>
@@ -5782,13 +5785,13 @@
     </row>
     <row r="12" spans="7:10" ht="18" x14ac:dyDescent="0.35">
       <c r="G12" s="20"/>
-      <c r="H12" s="48"/>
+      <c r="H12" s="55"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
     </row>
     <row r="13" spans="7:10" ht="18" x14ac:dyDescent="0.35">
       <c r="G13" s="20"/>
-      <c r="H13" s="49"/>
+      <c r="H13" s="56"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
     </row>
@@ -5861,10 +5864,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -5883,13 +5886,13 @@
         <v>384</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>214</v>
@@ -5910,13 +5913,13 @@
         <v>384</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>388</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>214</v>
@@ -5937,13 +5940,13 @@
         <v>384</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>214</v>
@@ -5964,13 +5967,13 @@
         <v>384</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>322</v>
@@ -5991,13 +5994,13 @@
         <v>384</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
@@ -6018,13 +6021,13 @@
         <v>384</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
@@ -6045,13 +6048,13 @@
         <v>384</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>396</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>214</v>
@@ -6072,13 +6075,13 @@
         <v>308</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>292</v>
@@ -6099,13 +6102,13 @@
         <v>308</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>292</v>
@@ -6154,7 +6157,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6210,10 +6213,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -6232,13 +6235,13 @@
         <v>401</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>214</v>
@@ -6259,13 +6262,13 @@
         <v>401</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -6286,13 +6289,13 @@
         <v>401</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -6313,13 +6316,13 @@
         <v>401</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>214</v>
@@ -6340,13 +6343,13 @@
         <v>401</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>214</v>
@@ -6367,13 +6370,13 @@
         <v>401</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>214</v>
@@ -6394,13 +6397,13 @@
         <v>401</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>414</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>214</v>
@@ -6421,13 +6424,13 @@
         <v>401</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>414</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>214</v>
@@ -6448,13 +6451,13 @@
         <v>401</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>414</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>214</v>
@@ -6475,13 +6478,13 @@
         <v>401</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>414</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
@@ -6502,13 +6505,13 @@
         <v>401</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>414</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
@@ -6529,13 +6532,13 @@
         <v>401</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>429</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
@@ -6548,7 +6551,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>422</v>
       </c>
@@ -6556,13 +6559,13 @@
         <v>401</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>431</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>12</v>
@@ -6583,13 +6586,13 @@
         <v>401</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>431</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
@@ -6610,13 +6613,13 @@
         <v>401</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>431</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
@@ -6629,7 +6632,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>425</v>
       </c>
@@ -6637,13 +6640,13 @@
         <v>401</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>435</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>12</v>
@@ -6664,13 +6667,13 @@
         <v>401</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
@@ -6691,13 +6694,13 @@
         <v>401</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
@@ -6718,13 +6721,13 @@
         <v>401</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
@@ -6773,7 +6776,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -6828,10 +6831,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -6850,13 +6853,13 @@
         <v>441</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>442</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>214</v>
@@ -6877,13 +6880,13 @@
         <v>441</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>442</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>214</v>
@@ -6904,7 +6907,7 @@
         <v>441</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>442</v>
@@ -6931,13 +6934,13 @@
         <v>441</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>442</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
@@ -6958,13 +6961,13 @@
         <v>441</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>442</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>214</v>
@@ -6985,13 +6988,13 @@
         <v>441</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>442</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>214</v>
@@ -7012,13 +7015,13 @@
         <v>441</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>442</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>214</v>
@@ -7039,13 +7042,13 @@
         <v>441</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>442</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>214</v>
@@ -7066,13 +7069,13 @@
         <v>441</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>442</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>214</v>
@@ -7093,13 +7096,13 @@
         <v>441</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>442</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>214</v>
@@ -7120,13 +7123,13 @@
         <v>441</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>442</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>214</v>
@@ -7147,13 +7150,13 @@
         <v>441</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>214</v>
@@ -7166,7 +7169,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>464</v>
       </c>
@@ -7174,13 +7177,13 @@
         <v>441</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>462</v>
@@ -7193,7 +7196,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>466</v>
       </c>
@@ -7201,13 +7204,13 @@
         <v>441</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>467</v>
@@ -7220,7 +7223,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" ht="189" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>470</v>
       </c>
@@ -7228,13 +7231,13 @@
         <v>441</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>469</v>
@@ -7247,7 +7250,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" ht="189" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>472</v>
       </c>
@@ -7255,13 +7258,13 @@
         <v>441</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>471</v>
@@ -7274,7 +7277,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>475</v>
       </c>
@@ -7282,13 +7285,13 @@
         <v>441</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>473</v>
@@ -7309,13 +7312,13 @@
         <v>441</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>473</v>
@@ -7336,13 +7339,13 @@
         <v>441</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>214</v>
@@ -7363,13 +7366,13 @@
         <v>441</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>465</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>477</v>
@@ -7390,13 +7393,13 @@
         <v>441</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>465</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>480</v>
@@ -7417,13 +7420,13 @@
         <v>441</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>465</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>214</v>
@@ -7444,13 +7447,13 @@
         <v>441</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>465</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>214</v>
@@ -7471,7 +7474,7 @@
         <v>441</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>465</v>
@@ -7498,13 +7501,13 @@
         <v>441</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>494</v>
@@ -7525,13 +7528,13 @@
         <v>441</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>496</v>
@@ -7552,13 +7555,13 @@
         <v>441</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>498</v>
@@ -7579,13 +7582,13 @@
         <v>441</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>213</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>473</v>
@@ -7606,13 +7609,13 @@
         <v>441</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>213</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>214</v>
@@ -7633,13 +7636,13 @@
         <v>441</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>213</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>214</v>
@@ -7666,7 +7669,7 @@
         <v>213</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>214</v>
@@ -7687,13 +7690,13 @@
         <v>441</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>512</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
@@ -7714,13 +7717,13 @@
         <v>441</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>12</v>
@@ -7769,7 +7772,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -7825,10 +7828,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -7847,13 +7850,13 @@
         <v>525</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>214</v>
@@ -7874,13 +7877,13 @@
         <v>525</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>527</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>214</v>
@@ -7901,13 +7904,13 @@
         <v>525</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>528</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -7928,13 +7931,13 @@
         <v>525</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
@@ -7955,13 +7958,13 @@
         <v>525</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
@@ -7982,13 +7985,13 @@
         <v>525</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
@@ -8009,13 +8012,13 @@
         <v>525</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
@@ -8036,13 +8039,13 @@
         <v>525</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>532</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -8063,13 +8066,13 @@
         <v>525</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>512</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -8090,13 +8093,13 @@
         <v>525</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
@@ -8146,7 +8149,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -8202,10 +8205,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -8224,13 +8227,13 @@
         <v>536</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>537</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
@@ -8251,13 +8254,13 @@
         <v>536</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>214</v>
@@ -8278,13 +8281,13 @@
         <v>536</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>542</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>214</v>
@@ -8305,13 +8308,13 @@
         <v>536</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>542</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>214</v>
@@ -8332,13 +8335,13 @@
         <v>536</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>214</v>
@@ -8359,13 +8362,13 @@
         <v>536</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>214</v>
@@ -8386,13 +8389,13 @@
         <v>536</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>214</v>
@@ -8413,13 +8416,13 @@
         <v>536</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>214</v>
@@ -8440,13 +8443,13 @@
         <v>536</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>214</v>
@@ -8467,13 +8470,13 @@
         <v>536</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>214</v>
@@ -8494,13 +8497,13 @@
         <v>536</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>214</v>
@@ -8521,13 +8524,13 @@
         <v>536</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>214</v>
@@ -8548,13 +8551,13 @@
         <v>536</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>214</v>
@@ -8575,13 +8578,13 @@
         <v>536</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>214</v>
@@ -8602,13 +8605,13 @@
         <v>536</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>214</v>
@@ -8629,13 +8632,13 @@
         <v>536</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>564</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>214</v>
@@ -8656,13 +8659,13 @@
         <v>536</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>564</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>214</v>
@@ -8689,7 +8692,7 @@
         <v>564</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>214</v>
@@ -8710,13 +8713,13 @@
         <v>536</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>512</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
@@ -8737,13 +8740,13 @@
         <v>536</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
@@ -8849,10 +8852,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -8871,13 +8874,13 @@
         <v>575</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>590</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>214</v>
@@ -8898,16 +8901,16 @@
         <v>575</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>578</v>
@@ -8925,13 +8928,13 @@
         <v>575</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -8952,13 +8955,13 @@
         <v>575</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
@@ -8979,13 +8982,13 @@
         <v>575</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
@@ -9006,13 +9009,13 @@
         <v>575</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
@@ -9033,13 +9036,13 @@
         <v>575</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>406</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
@@ -9060,13 +9063,13 @@
         <v>575</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>512</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -9087,13 +9090,13 @@
         <v>575</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -9142,8 +9145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32775450-76C2-4CCA-AF58-1359E2E0BE87}">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9160,55 +9163,55 @@
       <c r="A2" s="36" t="s">
         <v>591</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="58" t="s">
         <v>622</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="58" t="s">
         <v>623</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="57"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>593</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C4" s="50"/>
+      <c r="B4" s="57" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C4" s="57"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>594</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C5" s="50"/>
+      <c r="B5" s="57" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C5" s="57"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>595</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C6" s="50"/>
+      <c r="B6" s="61">
+        <v>45627</v>
+      </c>
+      <c r="C6" s="57"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>596</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C7" s="50"/>
+      <c r="B7" s="57" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C7" s="57"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
@@ -9232,7 +9235,7 @@
         <v>607</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>610</v>
@@ -9249,7 +9252,7 @@
         <v>98</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C12" s="40" t="s">
         <v>611</v>
@@ -9266,7 +9269,7 @@
         <v>122</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>612</v>
@@ -9283,7 +9286,7 @@
         <v>150</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>613</v>
@@ -9300,7 +9303,7 @@
         <v>212</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>614</v>
@@ -9317,7 +9320,7 @@
         <v>268</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>615</v>
@@ -9334,7 +9337,7 @@
         <v>308</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>616</v>
@@ -9351,7 +9354,7 @@
         <v>384</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>617</v>
@@ -9368,7 +9371,7 @@
         <v>401</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C19" s="40" t="s">
         <v>618</v>
@@ -9385,7 +9388,7 @@
         <v>441</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>619</v>
@@ -9402,7 +9405,7 @@
         <v>525</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C21" s="40" t="s">
         <v>620</v>
@@ -9419,7 +9422,7 @@
         <v>536</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>606</v>
@@ -9436,7 +9439,7 @@
         <v>575</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C23" s="40" t="s">
         <v>621</v>
@@ -9538,10 +9541,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="59" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
@@ -9553,733 +9556,733 @@
       <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="47" t="s">
         <v>626</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="47" t="s">
+        <v>906</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="50"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" ht="191.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>627</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>624</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>907</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="56" t="s">
+      <c r="G4" s="47" t="s">
+        <v>628</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="54" t="s">
-        <v>627</v>
-      </c>
-      <c r="D4" s="54" t="s">
+      <c r="C5" s="47" t="s">
+        <v>629</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E5" s="47" t="s">
         <v>908</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="54" t="s">
-        <v>628</v>
-      </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="56" t="s">
+      <c r="G5" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="50"/>
+    </row>
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="313.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>629</v>
-      </c>
-      <c r="D5" s="54" t="s">
+      <c r="C6" s="47" t="s">
+        <v>630</v>
+      </c>
+      <c r="D6" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E6" s="47" t="s">
         <v>909</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="57"/>
-    </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="313.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="56" t="s">
+      <c r="G6" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="50"/>
+    </row>
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="208.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>630</v>
-      </c>
-      <c r="D6" s="54" t="s">
+      <c r="C7" s="47" t="s">
+        <v>631</v>
+      </c>
+      <c r="D7" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E7" s="47" t="s">
         <v>910</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="57"/>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="208.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="56" t="s">
+      <c r="G7" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="1:11" s="6" customFormat="1" ht="208.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>631</v>
-      </c>
-      <c r="D7" s="54" t="s">
+      <c r="C8" s="47" t="s">
+        <v>632</v>
+      </c>
+      <c r="D8" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E8" s="47" t="s">
         <v>911</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="57"/>
-    </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" ht="208.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="56" t="s">
+      <c r="G8" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="1:11" s="6" customFormat="1" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>632</v>
-      </c>
-      <c r="D8" s="54" t="s">
+      <c r="C9" s="47" t="s">
+        <v>633</v>
+      </c>
+      <c r="D9" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E9" s="47" t="s">
         <v>912</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="57"/>
-    </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="56" t="s">
+      <c r="G9" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="50"/>
+    </row>
+    <row r="10" spans="1:11" s="6" customFormat="1" ht="174" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>633</v>
-      </c>
-      <c r="D9" s="54" t="s">
+      <c r="C10" s="47" t="s">
+        <v>634</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E10" s="47" t="s">
         <v>913</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="57"/>
-    </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" ht="174" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="56" t="s">
+      <c r="G10" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="50"/>
+    </row>
+    <row r="11" spans="1:11" s="6" customFormat="1" ht="121.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>634</v>
-      </c>
-      <c r="D10" s="54" t="s">
+      <c r="C11" s="47" t="s">
+        <v>635</v>
+      </c>
+      <c r="D11" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E11" s="47" t="s">
         <v>914</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F11" s="47" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="50"/>
+    </row>
+    <row r="12" spans="1:11" s="6" customFormat="1" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>636</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>624</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>915</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>625</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="50"/>
+    </row>
+    <row r="13" spans="1:11" s="6" customFormat="1" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>624</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>916</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="50"/>
+    </row>
+    <row r="14" spans="1:11" s="6" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>638</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>624</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>917</v>
+      </c>
+      <c r="F14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="57"/>
-    </row>
-    <row r="11" spans="1:11" s="6" customFormat="1" ht="121.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="56" t="s">
+      <c r="G14" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="50"/>
+    </row>
+    <row r="15" spans="1:11" s="6" customFormat="1" ht="87" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="54" t="s">
-        <v>635</v>
-      </c>
-      <c r="D11" s="54" t="s">
+      <c r="C15" s="47" t="s">
+        <v>639</v>
+      </c>
+      <c r="D15" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E11" s="54" t="s">
-        <v>915</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>1151</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="57"/>
-    </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="56" t="s">
+      <c r="E15" s="47" t="s">
+        <v>918</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="50"/>
+    </row>
+    <row r="16" spans="1:11" s="6" customFormat="1" ht="87" x14ac:dyDescent="0.3">
+      <c r="A16" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="54" t="s">
-        <v>636</v>
-      </c>
-      <c r="D12" s="54" t="s">
+      <c r="C16" s="47" t="s">
+        <v>640</v>
+      </c>
+      <c r="D16" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E12" s="54" t="s">
-        <v>916</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>625</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="57"/>
-    </row>
-    <row r="13" spans="1:11" s="6" customFormat="1" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="56" t="s">
+      <c r="E16" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="50"/>
+    </row>
+    <row r="17" spans="1:11" s="6" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="54" t="s">
-        <v>637</v>
-      </c>
-      <c r="D13" s="54" t="s">
+      <c r="C17" s="47" t="s">
+        <v>641</v>
+      </c>
+      <c r="D17" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E13" s="54" t="s">
-        <v>917</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="57"/>
-    </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="56" t="s">
+      <c r="E17" s="47" t="s">
+        <v>919</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="50"/>
+    </row>
+    <row r="18" spans="1:11" s="6" customFormat="1" ht="121.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="54" t="s">
-        <v>638</v>
-      </c>
-      <c r="D14" s="54" t="s">
+      <c r="C18" s="47" t="s">
+        <v>642</v>
+      </c>
+      <c r="D18" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E14" s="54" t="s">
-        <v>918</v>
-      </c>
-      <c r="F14" s="55" t="s">
+      <c r="E18" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="F18" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="57"/>
-    </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" ht="87" x14ac:dyDescent="0.3">
-      <c r="A15" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="56" t="s">
+      <c r="G18" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="50"/>
+    </row>
+    <row r="19" spans="1:11" s="6" customFormat="1" ht="191.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="54" t="s">
-        <v>639</v>
-      </c>
-      <c r="D15" s="54" t="s">
+      <c r="C19" s="47" t="s">
+        <v>643</v>
+      </c>
+      <c r="D19" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E15" s="54" t="s">
-        <v>919</v>
-      </c>
-      <c r="F15" s="55" t="s">
+      <c r="E19" s="47" t="s">
+        <v>921</v>
+      </c>
+      <c r="F19" s="49">
+        <v>12345</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="50"/>
+    </row>
+    <row r="20" spans="1:11" s="6" customFormat="1" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>644</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>624</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F20" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="57"/>
-    </row>
-    <row r="16" spans="1:11" s="6" customFormat="1" ht="87" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="56" t="s">
+      <c r="G20" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="50"/>
+    </row>
+    <row r="21" spans="1:11" s="6" customFormat="1" ht="191.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="54" t="s">
-        <v>640</v>
-      </c>
-      <c r="D16" s="54" t="s">
+      <c r="C21" s="53" t="s">
+        <v>645</v>
+      </c>
+      <c r="D21" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E16" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="55" t="s">
+      <c r="E21" s="47" t="s">
+        <v>922</v>
+      </c>
+      <c r="F21" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="57"/>
-    </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="56" t="s">
+      <c r="G21" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="50"/>
+    </row>
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A22" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="54" t="s">
-        <v>641</v>
-      </c>
-      <c r="D17" s="54" t="s">
+      <c r="C22" s="47" t="s">
+        <v>646</v>
+      </c>
+      <c r="D22" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E17" s="54" t="s">
-        <v>920</v>
-      </c>
-      <c r="F17" s="55" t="s">
+      <c r="E22" s="47" t="s">
+        <v>923</v>
+      </c>
+      <c r="F22" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="57"/>
-    </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" ht="121.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="56" t="s">
+      <c r="G22" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="50"/>
+    </row>
+    <row r="23" spans="1:11" s="6" customFormat="1" ht="174" x14ac:dyDescent="0.3">
+      <c r="A23" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="54" t="s">
-        <v>642</v>
-      </c>
-      <c r="D18" s="54" t="s">
+      <c r="C23" s="47" t="s">
+        <v>647</v>
+      </c>
+      <c r="D23" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E18" s="54" t="s">
-        <v>921</v>
-      </c>
-      <c r="F18" s="55" t="s">
+      <c r="E23" s="47" t="s">
+        <v>924</v>
+      </c>
+      <c r="F23" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="57"/>
-    </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="56" t="s">
+      <c r="G23" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="50"/>
+    </row>
+    <row r="24" spans="1:11" s="6" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="54" t="s">
-        <v>643</v>
-      </c>
-      <c r="D19" s="54" t="s">
+      <c r="C24" s="47" t="s">
+        <v>648</v>
+      </c>
+      <c r="D24" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E19" s="54" t="s">
-        <v>922</v>
-      </c>
-      <c r="F19" s="56">
-        <v>12345</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="57"/>
-    </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="56" t="s">
+      <c r="E24" s="47" t="s">
+        <v>925</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="50"/>
+    </row>
+    <row r="25" spans="1:11" s="6" customFormat="1" ht="87" x14ac:dyDescent="0.3">
+      <c r="A25" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="54" t="s">
-        <v>644</v>
-      </c>
-      <c r="D20" s="54" t="s">
+      <c r="C25" s="47" t="s">
+        <v>649</v>
+      </c>
+      <c r="D25" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E20" s="54" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F20" s="55" t="s">
+      <c r="E25" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="57"/>
-    </row>
-    <row r="21" spans="1:11" s="6" customFormat="1" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="56" t="s">
+      <c r="G25" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="50"/>
+    </row>
+    <row r="26" spans="1:11" s="6" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="60" t="s">
-        <v>645</v>
-      </c>
-      <c r="D21" s="54" t="s">
+      <c r="C26" s="47" t="s">
+        <v>650</v>
+      </c>
+      <c r="D26" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E21" s="54" t="s">
-        <v>923</v>
-      </c>
-      <c r="F21" s="55" t="s">
+      <c r="E26" s="47" t="s">
+        <v>926</v>
+      </c>
+      <c r="F26" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="57"/>
-    </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="56" t="s">
+      <c r="G26" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="50"/>
+    </row>
+    <row r="27" spans="1:11" s="6" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D22" s="54" t="s">
+      <c r="C27" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="D27" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E22" s="54" t="s">
-        <v>924</v>
-      </c>
-      <c r="F22" s="55" t="s">
+      <c r="E27" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="57"/>
-    </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" ht="174" x14ac:dyDescent="0.3">
-      <c r="A23" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="56" t="s">
+      <c r="G27" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="50"/>
+    </row>
+    <row r="28" spans="1:11" s="6" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="D23" s="54" t="s">
+      <c r="C28" s="47" t="s">
+        <v>652</v>
+      </c>
+      <c r="D28" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E23" s="54" t="s">
-        <v>925</v>
-      </c>
-      <c r="F23" s="55" t="s">
+      <c r="E28" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="57"/>
-    </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="56" t="s">
+      <c r="G28" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="50"/>
+    </row>
+    <row r="29" spans="1:11" s="6" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="54" t="s">
-        <v>648</v>
-      </c>
-      <c r="D24" s="54" t="s">
+      <c r="C29" s="47" t="s">
+        <v>653</v>
+      </c>
+      <c r="D29" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="E24" s="54" t="s">
-        <v>926</v>
-      </c>
-      <c r="F24" s="55" t="s">
+      <c r="E29" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="57"/>
-    </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" ht="87" x14ac:dyDescent="0.3">
-      <c r="A25" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>649</v>
-      </c>
-      <c r="D25" s="54" t="s">
-        <v>624</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="57"/>
-    </row>
-    <row r="26" spans="1:11" s="6" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>650</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>624</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>927</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="57"/>
-    </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>624</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="57"/>
-    </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>652</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>624</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="57"/>
-    </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="54" t="s">
-        <v>653</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>624</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="57"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10318,7 +10321,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E25" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -10374,10 +10377,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="59" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
@@ -10402,10 +10405,10 @@
         <v>654</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>99</v>
@@ -10429,7 +10432,7 @@
         <v>655</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>100</v>
@@ -10456,7 +10459,7 @@
         <v>655</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>102</v>
@@ -10483,10 +10486,10 @@
         <v>655</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>101</v>
@@ -10510,7 +10513,7 @@
         <v>655</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>12</v>
@@ -10537,7 +10540,7 @@
         <v>655</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>12</v>
@@ -10564,7 +10567,7 @@
         <v>655</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>12</v>
@@ -10591,7 +10594,7 @@
         <v>655</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>12</v>
@@ -10618,10 +10621,10 @@
         <v>655</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>106</v>
@@ -10645,10 +10648,10 @@
         <v>655</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>107</v>
@@ -10672,7 +10675,7 @@
         <v>655</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>108</v>
@@ -10699,7 +10702,7 @@
         <v>655</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F14" s="43" t="s">
         <v>100</v>
@@ -10726,7 +10729,7 @@
         <v>655</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>12</v>
@@ -10753,7 +10756,7 @@
         <v>655</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F16" s="29" t="s">
         <v>12</v>
@@ -10780,7 +10783,7 @@
         <v>655</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>12</v>
@@ -10807,10 +10810,10 @@
         <v>655</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>114</v>
@@ -10834,10 +10837,10 @@
         <v>655</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>115</v>
@@ -10861,10 +10864,10 @@
         <v>655</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G20" s="34" t="s">
         <v>116</v>
@@ -10888,7 +10891,7 @@
         <v>655</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>12</v>
@@ -10915,7 +10918,7 @@
         <v>655</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>12</v>
@@ -10942,7 +10945,7 @@
         <v>655</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>12</v>
@@ -10969,7 +10972,7 @@
         <v>655</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>12</v>
@@ -10996,7 +10999,7 @@
         <v>655</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>12</v>
@@ -11046,7 +11049,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -11101,10 +11104,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -11129,7 +11132,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
@@ -11156,7 +11159,7 @@
         <v>126</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -11183,7 +11186,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -11210,7 +11213,7 @@
         <v>123</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
@@ -11237,7 +11240,7 @@
         <v>132</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
@@ -11264,7 +11267,7 @@
         <v>137</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
@@ -11291,7 +11294,7 @@
         <v>138</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
@@ -11318,7 +11321,7 @@
         <v>123</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -11345,7 +11348,7 @@
         <v>143</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -11372,7 +11375,7 @@
         <v>143</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
@@ -11399,7 +11402,7 @@
         <v>143</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
@@ -11448,8 +11451,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11503,10 +11506,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -11531,7 +11534,7 @@
         <v>151</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
@@ -11558,7 +11561,7 @@
         <v>151</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -11585,7 +11588,7 @@
         <v>157</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -11666,7 +11669,7 @@
         <v>163</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
@@ -11693,7 +11696,7 @@
         <v>151</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
@@ -11720,7 +11723,7 @@
         <v>179</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -11747,7 +11750,7 @@
         <v>179</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -11774,7 +11777,7 @@
         <v>179</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
@@ -11801,7 +11804,7 @@
         <v>179</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
@@ -11828,7 +11831,7 @@
         <v>179</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
@@ -11855,7 +11858,7 @@
         <v>179</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>12</v>
@@ -11882,7 +11885,7 @@
         <v>179</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
@@ -11909,7 +11912,7 @@
         <v>163</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
@@ -11936,7 +11939,7 @@
         <v>163</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
@@ -11963,7 +11966,7 @@
         <v>163</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
@@ -11990,10 +11993,10 @@
         <v>163</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>715</v>
+        <v>1152</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>193</v>
@@ -12017,7 +12020,7 @@
         <v>163</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
@@ -12044,7 +12047,7 @@
         <v>163</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
@@ -12071,7 +12074,7 @@
         <v>163</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
@@ -12098,7 +12101,7 @@
         <v>163</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
@@ -12125,7 +12128,7 @@
         <v>163</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
@@ -12228,7 +12231,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -12283,10 +12286,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -12305,13 +12308,13 @@
         <v>212</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>214</v>
@@ -12332,13 +12335,13 @@
         <v>212</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>217</v>
@@ -12359,13 +12362,13 @@
         <v>212</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -12386,13 +12389,13 @@
         <v>212</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>222</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>214</v>
@@ -12413,13 +12416,13 @@
         <v>212</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>224</v>
@@ -12440,13 +12443,13 @@
         <v>212</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
@@ -12467,13 +12470,13 @@
         <v>212</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
@@ -12494,13 +12497,13 @@
         <v>212</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>231</v>
@@ -12521,13 +12524,13 @@
         <v>212</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>233</v>
@@ -12548,13 +12551,13 @@
         <v>212</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>236</v>
@@ -12575,13 +12578,13 @@
         <v>212</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>214</v>
@@ -12602,13 +12605,13 @@
         <v>212</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>240</v>
@@ -12629,13 +12632,13 @@
         <v>212</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>214</v>
@@ -12656,13 +12659,13 @@
         <v>212</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>224</v>
@@ -12683,13 +12686,13 @@
         <v>212</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>224</v>
@@ -12710,13 +12713,13 @@
         <v>212</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>12</v>
@@ -12737,13 +12740,13 @@
         <v>212</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
@@ -12764,7 +12767,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>213</v>
@@ -12791,13 +12794,13 @@
         <v>212</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
@@ -12818,7 +12821,7 @@
         <v>212</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>213</v>
@@ -12845,13 +12848,13 @@
         <v>212</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
@@ -12872,13 +12875,13 @@
         <v>212</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
@@ -12927,7 +12930,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -12983,10 +12986,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -13005,13 +13008,13 @@
         <v>268</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>214</v>
@@ -13032,13 +13035,13 @@
         <v>268</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>214</v>
@@ -13059,13 +13062,13 @@
         <v>268</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>214</v>
@@ -13086,13 +13089,13 @@
         <v>268</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
@@ -13113,13 +13116,13 @@
         <v>268</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
@@ -13140,13 +13143,13 @@
         <v>268</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>214</v>
@@ -13167,13 +13170,13 @@
         <v>268</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
@@ -13194,13 +13197,13 @@
         <v>268</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>214</v>
@@ -13221,13 +13224,13 @@
         <v>268</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -13248,13 +13251,13 @@
         <v>268</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
@@ -13275,7 +13278,7 @@
         <v>268</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>213</v>
@@ -13302,7 +13305,7 @@
         <v>268</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>213</v>
@@ -13329,13 +13332,13 @@
         <v>268</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>214</v>
@@ -13356,19 +13359,19 @@
         <v>268</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>214</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -13383,19 +13386,19 @@
         <v>268</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>290</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -13410,19 +13413,19 @@
         <v>268</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>292</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H18" s="9" t="e">
         <f>+E17G17D17:H17D17:H17G17D17:H17C17:H17G17D17:H17B17:H17G17D17:H17A17:H18</f>
@@ -13440,19 +13443,19 @@
         <v>268</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>294</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -13467,19 +13470,19 @@
         <v>268</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>296</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -13494,19 +13497,19 @@
         <v>268</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>298</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -13521,19 +13524,19 @@
         <v>268</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>292</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -13548,19 +13551,19 @@
         <v>268</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>292</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -13575,13 +13578,13 @@
         <v>268</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>292</v>
@@ -13602,13 +13605,13 @@
         <v>268</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>292</v>
@@ -13629,13 +13632,13 @@
         <v>268</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>292</v>
@@ -13685,7 +13688,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -13741,10 +13744,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -13763,13 +13766,13 @@
         <v>308</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>214</v>
@@ -13790,7 +13793,7 @@
         <v>308</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>132</v>
@@ -13817,7 +13820,7 @@
         <v>308</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>132</v>
@@ -13844,13 +13847,13 @@
         <v>308</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>214</v>
@@ -13871,13 +13874,13 @@
         <v>308</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>214</v>
@@ -13898,13 +13901,13 @@
         <v>308</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>214</v>
@@ -13925,13 +13928,13 @@
         <v>308</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>322</v>
@@ -13952,13 +13955,13 @@
         <v>308</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>214</v>
@@ -13979,13 +13982,13 @@
         <v>308</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>322</v>
@@ -14006,13 +14009,13 @@
         <v>308</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>322</v>
@@ -14033,13 +14036,13 @@
         <v>308</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>214</v>
@@ -14060,13 +14063,13 @@
         <v>308</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>214</v>
@@ -14087,13 +14090,13 @@
         <v>308</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>214</v>
@@ -14114,13 +14117,13 @@
         <v>308</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>214</v>
@@ -14141,13 +14144,13 @@
         <v>308</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>214</v>
@@ -14168,13 +14171,13 @@
         <v>308</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>214</v>
@@ -14195,13 +14198,13 @@
         <v>308</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>214</v>
@@ -14222,13 +14225,13 @@
         <v>308</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>214</v>
@@ -14249,13 +14252,13 @@
         <v>308</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>348</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>214</v>
@@ -14276,13 +14279,13 @@
         <v>308</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>358</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>214</v>
@@ -14303,13 +14306,13 @@
         <v>308</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>214</v>
@@ -14330,7 +14333,7 @@
         <v>308</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>358</v>
@@ -14357,13 +14360,13 @@
         <v>308</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>359</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>214</v>
@@ -14384,13 +14387,13 @@
         <v>308</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>359</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>214</v>
@@ -14411,7 +14414,7 @@
         <v>308</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>363</v>
@@ -14438,13 +14441,13 @@
         <v>308</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>363</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>214</v>
@@ -14465,13 +14468,13 @@
         <v>308</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>363</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>214</v>
@@ -14492,13 +14495,13 @@
         <v>308</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>363</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>214</v>
@@ -14519,13 +14522,13 @@
         <v>308</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>363</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>214</v>
@@ -14546,13 +14549,13 @@
         <v>308</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>363</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>214</v>
@@ -14573,13 +14576,13 @@
         <v>308</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>363</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>322</v>
@@ -14600,13 +14603,13 @@
         <v>308</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>363</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>322</v>
@@ -14627,13 +14630,13 @@
         <v>308</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>363</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>322</v>
@@ -14654,13 +14657,13 @@
         <v>308</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>363</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>322</v>
@@ -14681,13 +14684,13 @@
         <v>308</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>292</v>
@@ -14708,13 +14711,13 @@
         <v>308</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>292</v>
@@ -14735,13 +14738,13 @@
         <v>308</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>213</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>292</v>
